--- a/data/trans_dic/IP19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,49</t>
+          <t>1,49; 12,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 17,24</t>
+          <t>1,58; 18,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,79</t>
+          <t>1,87; 16,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 22,83</t>
+          <t>6,31; 22,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,57</t>
+          <t>3,06; 16,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,04</t>
+          <t>0,0; 17,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,98</t>
+          <t>0,0; 15,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,24</t>
+          <t>5,21; 14,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,04</t>
+          <t>3,6; 13,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 12,16</t>
+          <t>1,24; 12,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,08</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,04</t>
+          <t>7,5; 13,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,93</t>
+          <t>5,0; 10,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,24</t>
+          <t>2,24; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,48</t>
+          <t>3,6; 8,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 14,46</t>
+          <t>7,89; 14,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,4</t>
+          <t>4,83; 10,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,54</t>
+          <t>4,99; 10,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,57</t>
+          <t>3,96; 9,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,99</t>
+          <t>8,36; 12,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,86</t>
+          <t>5,84; 9,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,39</t>
+          <t>4,1; 7,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,38</t>
+          <t>4,34; 8,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 20,41</t>
+          <t>7,1; 20,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 25,08</t>
+          <t>11,28; 25,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 17,09</t>
+          <t>6,03; 16,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 12,69</t>
+          <t>4,39; 12,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 24,56</t>
+          <t>10,41; 25,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 23,33</t>
+          <t>10,39; 24,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 19,63</t>
+          <t>6,88; 18,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 19,0</t>
+          <t>7,4; 19,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 19,83</t>
+          <t>10,18; 19,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 21,4</t>
+          <t>12,66; 22,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 15,61</t>
+          <t>7,07; 15,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,3</t>
+          <t>6,46; 13,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,01</t>
+          <t>7,66; 13,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,49</t>
+          <t>7,58; 12,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,89</t>
+          <t>3,8; 7,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,06</t>
+          <t>4,17; 8,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,52</t>
+          <t>9,61; 15,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,27</t>
+          <t>7,4; 12,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,89</t>
+          <t>6,03; 11,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,63</t>
+          <t>5,55; 10,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,18</t>
+          <t>9,26; 13,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,68</t>
+          <t>8,0; 11,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,94</t>
+          <t>5,51; 8,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,3</t>
+          <t>5,41; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,44 +656,44 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,57%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>7,23%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>6,31%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>8,97%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,51</t>
+          <t>6,87; 22,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,39</t>
+          <t>3,65; 16,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 16,82</t>
+          <t>0,0; 15,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 12,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 12,44</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 16,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 17,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 5,96</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 22,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 16,86</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,13</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,99</t>
+          <t>4,96; 14,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,73</t>
+          <t>4,18; 13,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,59</t>
+          <t>1,64; 12,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,12</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>10,2%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>7,83%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>3,88%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,68%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,95</t>
+          <t>7,66; 14,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,82</t>
+          <t>4,81; 10,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,45</t>
+          <t>5,11; 10,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,6</t>
+          <t>4,16; 9,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,55</t>
+          <t>7,36; 13,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,31</t>
+          <t>5,31; 11,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,5</t>
+          <t>2,17; 6,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,66</t>
+          <t>3,26; 8,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 12,86</t>
+          <t>8,39; 12,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,91</t>
+          <t>5,64; 9,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,54</t>
+          <t>4,2; 7,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,08</t>
+          <t>4,22; 7,87</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>12,59%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,28%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>10,64%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,4%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>16,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 20,17</t>
+          <t>10,94; 25,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 25,02</t>
+          <t>10,49; 24,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,54</t>
+          <t>6,65; 19,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,33</t>
+          <t>7,51; 18,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 25,0</t>
+          <t>6,9; 20,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 24,09</t>
+          <t>11,37; 24,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 18,95</t>
+          <t>6,09; 16,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 19,11</t>
+          <t>4,15; 11,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 19,32</t>
+          <t>10,47; 19,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 22,09</t>
+          <t>12,56; 22,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,63</t>
+          <t>7,57; 15,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,67</t>
+          <t>6,32; 13,41</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>10,01%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>9,88%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>5,68%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,08</t>
+          <t>9,37; 15,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,59</t>
+          <t>7,43; 12,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,88</t>
+          <t>5,96; 11,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,3</t>
+          <t>5,62; 10,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,23</t>
+          <t>7,67; 12,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,56</t>
+          <t>7,56; 12,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,08</t>
+          <t>4,08; 8,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,37</t>
+          <t>4,04; 7,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,0</t>
+          <t>9,16; 13,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,81</t>
+          <t>8,1; 11,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,53</t>
+          <t>5,55; 8,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,41</t>
+          <t>5,14; 8,24</t>
         </is>
       </c>
     </row>
